--- a/GradeDistributionsDB/Fall2015/Output/Fall2015 MD.xlsx
+++ b/GradeDistributionsDB/Fall2015/Output/Fall2015 MD.xlsx
@@ -25,19 +25,19 @@
     <t>GPA</t>
   </si>
   <si>
-    <t># of A's</t>
-  </si>
-  <si>
-    <t># of B's</t>
-  </si>
-  <si>
-    <t># of C's</t>
-  </si>
-  <si>
-    <t># of D's</t>
-  </si>
-  <si>
-    <t># of F's</t>
+    <t>% of A's</t>
+  </si>
+  <si>
+    <t>% of B's</t>
+  </si>
+  <si>
+    <t>% of C's</t>
+  </si>
+  <si>
+    <t>% of D's</t>
+  </si>
+  <si>
+    <t>% of F's</t>
   </si>
   <si>
     <t>EDHP-500</t>
@@ -55,18 +55,24 @@
     <t>0.00%</t>
   </si>
   <si>
+    <t>HCPI-555</t>
+  </si>
+  <si>
+    <t>MCCANN A</t>
+  </si>
+  <si>
+    <t>80.00%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
+  </si>
+  <si>
     <t>MPHY-601</t>
   </si>
   <si>
     <t>ZHANG S</t>
   </si>
   <si>
-    <t>80.00%</t>
-  </si>
-  <si>
-    <t>20.00%</t>
-  </si>
-  <si>
     <t>MSCI-601</t>
   </si>
   <si>
@@ -101,12 +107,6 @@
   </si>
   <si>
     <t>COLLEGE T</t>
-  </si>
-  <si>
-    <t>HCPI-555</t>
-  </si>
-  <si>
-    <t>MCCANN A</t>
   </si>
 </sst>
 </file>
@@ -543,101 +543,101 @@
         <v>18</v>
       </c>
       <c r="C9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="n">
         <v>3.111</v>
       </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" t="s">
+      <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="n">
-        <v>3.222</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F12" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>25</v>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.222</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="n">
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="n">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
         <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -645,13 +645,13 @@
         <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>

--- a/GradeDistributionsDB/Fall2015/Output/Fall2015 MD.xlsx
+++ b/GradeDistributionsDB/Fall2015/Output/Fall2015 MD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Course</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>100.00%</t>
-  </si>
-  <si>
-    <t>COLLEGE T</t>
   </si>
 </sst>
 </file>
@@ -443,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,29 +637,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/GradeDistributionsDB/Fall2015/Output/Fall2015 MD.xlsx
+++ b/GradeDistributionsDB/Fall2015/Output/Fall2015 MD.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Course</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>% of F's</t>
+  </si>
+  <si>
+    <t>% of Q Drop's</t>
   </si>
   <si>
     <t>EDHP-500</t>
@@ -141,12 +144,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -440,15 +442,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,168 +475,189 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.857</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>3.8</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
         <v>3.8</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
         <v>3.111</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
         <v>3.222</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
